--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/146.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/146.xlsx
@@ -479,13 +479,13 @@
         <v>1.022760544094103</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.576812043683947</v>
+        <v>-5.557256016216287</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.717400507024518</v>
+        <v>-3.75083642498735</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.94748386712735</v>
+        <v>-10.80025142533021</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>1.095346188240882</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.438054604352817</v>
+        <v>-6.416014961396764</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.771380031842126</v>
+        <v>-3.803867482472776</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.76849243672273</v>
+        <v>-10.63320383870146</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>1.275820029569151</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.809482234046079</v>
+        <v>-6.79486899252087</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.845575600054428</v>
+        <v>-3.871560671552081</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.2538266838426</v>
+        <v>-10.12975346757403</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>1.558314647695205</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.517850438993386</v>
+        <v>-7.492173374928348</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.529872870630262</v>
+        <v>-3.557050859803442</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.943961428617525</v>
+        <v>-9.826336812406419</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>1.938011493254234</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.264147559214219</v>
+        <v>-8.239150067103683</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.471532351687366</v>
+        <v>-3.499072127368698</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.574958746330253</v>
+        <v>-9.457622581524294</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>2.404539375744952</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.918858913797134</v>
+        <v>-8.896951274026488</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.367831627033233</v>
+        <v>-3.398857264610675</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.982494227176899</v>
+        <v>-8.876285442000039</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>2.94980355308711</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.584521643761938</v>
+        <v>-9.562628671011893</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.240350772978426</v>
+        <v>-3.275644513550684</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.341760543226494</v>
+        <v>-8.253611749416017</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>3.567080160043923</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.26613720313349</v>
+        <v>-10.23981479016202</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.121816801490072</v>
+        <v>-3.156127851682082</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.799232340211809</v>
+        <v>-7.719922870816714</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>4.249166675087972</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.48821056204936</v>
+        <v>-10.46680648998601</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.952574050778078</v>
+        <v>-2.995636423261865</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.460844618925157</v>
+        <v>-7.391205605112821</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>4.988347957767215</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.17880233802857</v>
+        <v>-11.15563333448626</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.993895936817243</v>
+        <v>-3.038136559955956</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.845250208284429</v>
+        <v>-6.791520022817034</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5.776047806441224</v>
       </c>
       <c r="E12" t="n">
-        <v>-11.7563456082241</v>
+        <v>-11.73617356589121</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.58963373700578</v>
+        <v>-2.637438446150474</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.27778318124161</v>
+        <v>-6.231435396143257</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>6.600399540987826</v>
       </c>
       <c r="E13" t="n">
-        <v>-12.71060152453603</v>
+        <v>-12.68531069201348</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.317687619040503</v>
+        <v>-2.367487042986898</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.535128371136629</v>
+        <v>-5.494368720887159</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>7.443740331659314</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.17941817101823</v>
+        <v>-13.15670873412141</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.264866788850354</v>
+        <v>-2.316905377941796</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.950745380334285</v>
+        <v>-4.913114694479641</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>8.282292429927539</v>
       </c>
       <c r="E15" t="n">
-        <v>-13.91413812297821</v>
+        <v>-13.88813838445996</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.097882759310874</v>
+        <v>-2.14539901705042</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.197251642005353</v>
+        <v>-4.163277933287162</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>9.093736950534716</v>
       </c>
       <c r="E16" t="n">
-        <v>-14.64562155239229</v>
+        <v>-14.61562749526377</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.756141179313519</v>
+        <v>-1.80466457246765</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.009327996054877</v>
+        <v>-3.969423922007117</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>9.85157315333988</v>
       </c>
       <c r="E17" t="n">
-        <v>-15.54545304426172</v>
+        <v>-15.51589410874436</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.359720946516587</v>
+        <v>-1.406650523432104</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.542706513655914</v>
+        <v>-3.504093137421019</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>10.53134846998717</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.2046182841004</v>
+        <v>-16.17266373521824</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.174887152906001</v>
+        <v>-1.219797569985481</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.341929668652317</v>
+        <v>-3.298588622777117</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>11.11375715382083</v>
       </c>
       <c r="E19" t="n">
-        <v>-16.96815404253397</v>
+        <v>-16.93596971032907</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7109301792495057</v>
+        <v>-0.7549214630380064</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.750995408648308</v>
+        <v>-2.706881899688134</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>11.5850378797615</v>
       </c>
       <c r="E20" t="n">
-        <v>-17.90157790058598</v>
+        <v>-17.8621187261631</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4298905085117669</v>
+        <v>-0.4671642968651264</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.785516686135594</v>
+        <v>-2.738205766684458</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>11.93961521470891</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.10856378431055</v>
+        <v>-18.07547987484214</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02294913293723426</v>
+        <v>-0.06003713902965106</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.879889185687653</v>
+        <v>-2.835844122823616</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>12.17447853209364</v>
       </c>
       <c r="E22" t="n">
-        <v>-18.61799829984309</v>
+        <v>-18.59101098193772</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3503754314203912</v>
+        <v>0.3122509558721884</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.839178425506852</v>
+        <v>-2.793681327603342</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>12.29890410055688</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.12692924766834</v>
+        <v>-19.08990968767206</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4333663229862724</v>
+        <v>0.3982241416268878</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.741364065120485</v>
+        <v>-2.701186206688178</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>12.3233776951013</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.34340958272846</v>
+        <v>-19.31166526114158</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4883040931497957</v>
+        <v>0.4597278480126779</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.177610147855306</v>
+        <v>-3.135647801916575</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>12.26104574921941</v>
       </c>
       <c r="E25" t="n">
-        <v>-19.93619188732817</v>
+        <v>-19.90530803094986</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6404353198275882</v>
+        <v>0.6174374315256203</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.370349465569694</v>
+        <v>-3.33482594167469</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>12.12586852453134</v>
       </c>
       <c r="E26" t="n">
-        <v>-19.91128239734124</v>
+        <v>-19.88375728868051</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6807402924384349</v>
+        <v>0.6603482447965328</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.565015051989647</v>
+        <v>-3.536316581680856</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>11.92943591242026</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.0975975600325</v>
+        <v>-20.06816573869367</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5201364168602789</v>
+        <v>0.4995145858956317</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.896827059040297</v>
+        <v>-3.865390744886034</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>11.68524884027695</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.29350984320351</v>
+        <v>-20.2636331222398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5990498766991531</v>
+        <v>0.5774355773405221</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.271109868743838</v>
+        <v>-4.240397127605879</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>11.40251282400488</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.08533593081027</v>
+        <v>-20.05699435800277</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3874487704922072</v>
+        <v>0.3705768077944838</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.482041181010016</v>
+        <v>-4.452653360732991</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>11.09291785320159</v>
       </c>
       <c r="E30" t="n">
-        <v>-19.78504335103062</v>
+        <v>-19.76149300495269</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4548486191594967</v>
+        <v>0.4331952077459304</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.982641261134039</v>
+        <v>-4.960039382388291</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>10.76440030340937</v>
       </c>
       <c r="E31" t="n">
-        <v>-19.63196365702065</v>
+        <v>-19.60754306772041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4254412428550033</v>
+        <v>0.4063056699778982</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.015211824881426</v>
+        <v>-4.992785950382888</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>10.42347935844514</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.493198975117</v>
+        <v>-19.47650301666649</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1393414500100074</v>
+        <v>0.1230170560813784</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.380278856640833</v>
+        <v>-5.360312152596352</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>10.07532368853769</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.1111524225088</v>
+        <v>-19.09864634294323</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05113398811712795</v>
+        <v>0.03287354746920062</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.539494254268784</v>
+        <v>-5.513978527430355</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>9.722610063067691</v>
       </c>
       <c r="E34" t="n">
-        <v>-18.80358011150432</v>
+        <v>-18.78454720777142</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.06586972422188059</v>
+        <v>-0.08341148086037142</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.741268456673231</v>
+        <v>-5.721037746257937</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>9.36895214112533</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.28560450097528</v>
+        <v>-18.26589691429474</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1730856448133254</v>
+        <v>-0.1939030360526492</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.558585826084087</v>
+        <v>-5.534404798120326</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>9.019316941301531</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.78657379205553</v>
+        <v>-17.76867513791576</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1938737020114478</v>
+        <v>-0.2182502902498857</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.709626804230558</v>
+        <v>-5.683514618554365</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>8.677384212586821</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.4465140304204</v>
+        <v>-17.4294318404274</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09709092207399944</v>
+        <v>-0.1183678799588133</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.389827087051917</v>
+        <v>-5.366819420736215</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>8.346724748582277</v>
       </c>
       <c r="E38" t="n">
-        <v>-16.9122922500726</v>
+        <v>-16.89941460598515</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2188418600807824</v>
+        <v>-0.2486012448796937</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.341724148488341</v>
+        <v>-5.318051577238739</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>8.029910493577439</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.28074012101827</v>
+        <v>-16.26752024645013</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3241217339529289</v>
+        <v>-0.3516859546685954</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.307872664941822</v>
+        <v>-5.283491187696517</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>7.729658830790866</v>
       </c>
       <c r="E40" t="n">
-        <v>-15.94003012146983</v>
+        <v>-15.92372528356867</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.2783508516648712</v>
+        <v>-0.3054603947419146</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.408659541503273</v>
+        <v>-5.371654648527594</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>7.447538255995625</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.19941402722835</v>
+        <v>-15.18087491318901</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3589999089415001</v>
+        <v>-0.3865690186640335</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.605471401937802</v>
+        <v>-5.563064156374181</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>7.183336149743175</v>
       </c>
       <c r="E42" t="n">
-        <v>-14.59794884643301</v>
+        <v>-14.57932661927693</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.4108820498132016</v>
+        <v>-0.4437068419176685</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.771927418735655</v>
+        <v>-5.72220621889913</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>6.94127011920385</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.14172628163997</v>
+        <v>-14.12161779639635</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.5766047155810176</v>
+        <v>-0.6091263892597358</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.525013015928982</v>
+        <v>-5.471625060942271</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.721222113826505</v>
       </c>
       <c r="E44" t="n">
-        <v>-13.57770111543146</v>
+        <v>-13.55725528871402</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5522867954249826</v>
+        <v>-0.5869400760976757</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.67113076416047</v>
+        <v>-5.612443125730023</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.524050048595466</v>
       </c>
       <c r="E45" t="n">
-        <v>-12.96069378180619</v>
+        <v>-12.94119642242094</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6071658975061029</v>
+        <v>-0.6449628095942224</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.895668182537272</v>
+        <v>-5.826664739617635</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.348823891530768</v>
       </c>
       <c r="E46" t="n">
-        <v>-11.99586294364113</v>
+        <v>-11.97842874515371</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.7894622965527606</v>
+        <v>-0.8275525490528949</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.000904055347617</v>
+        <v>-5.926820934293255</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>6.193733170149171</v>
       </c>
       <c r="E47" t="n">
-        <v>-11.7228754672132</v>
+        <v>-11.70432168615326</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.8561336831968798</v>
+        <v>-0.8927865676781411</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.330887573830041</v>
+        <v>-6.251211428919928</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>6.055912522580648</v>
       </c>
       <c r="E48" t="n">
-        <v>-10.99466767239995</v>
+        <v>-10.97628500658035</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.021054551838522</v>
+        <v>-1.059237695469127</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.47823735179199</v>
+        <v>-6.385976903206439</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.929307284242245</v>
       </c>
       <c r="E49" t="n">
-        <v>-10.51541788526375</v>
+        <v>-10.49901037821838</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.105248139093664</v>
+        <v>-1.145910009205796</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.424018265637904</v>
+        <v>-6.336544154775061</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.812587678572099</v>
       </c>
       <c r="E50" t="n">
-        <v>-9.961253845905803</v>
+        <v>-9.944523664407221</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.359774725592123</v>
+        <v>-1.401839740675059</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.756636958821595</v>
+        <v>-6.6701015372772</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.700189667002394</v>
       </c>
       <c r="E51" t="n">
-        <v>-9.503105012407204</v>
+        <v>-9.484854349773011</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.34455035820855</v>
+        <v>-1.38315395642971</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.00017305788323</v>
+        <v>-6.90828906282643</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>5.588264191580353</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.956245149308433</v>
+        <v>-8.943597288543724</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.436532133402688</v>
+        <v>-1.474959727376639</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.00990218154839</v>
+        <v>-6.914556769629815</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>5.472279680101722</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.483175066852008</v>
+        <v>-8.4711921110212</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.331638491073028</v>
+        <v>-1.371904351628939</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.273659213011585</v>
+        <v>-7.170936289730835</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>5.34857745920831</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.80666363064952</v>
+        <v>-7.805651606228068</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.434068073941763</v>
+        <v>-1.475815303578349</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.165196595669077</v>
+        <v>-7.065944867263837</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>5.214965464261116</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.167201088484512</v>
+        <v>-7.158733328591016</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.659505069582078</v>
+        <v>-1.701760755932824</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.336287390976765</v>
+        <v>-7.239602391176655</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>5.069214245948318</v>
       </c>
       <c r="E56" t="n">
-        <v>-6.810342699254656</v>
+        <v>-6.805776366840957</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.695302377861629</v>
+        <v>-1.739650559151415</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.285500387643252</v>
+        <v>-7.193142158920363</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>4.913874810360308</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.611091224393538</v>
+        <v>-6.598614478869171</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.702049207337972</v>
+        <v>-1.744632457148801</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.126622331489118</v>
+        <v>-7.035398352359352</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>4.75064626481703</v>
       </c>
       <c r="E58" t="n">
-        <v>-5.929945009681213</v>
+        <v>-5.9198394324873</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.79463233037674</v>
+        <v>-1.836032440525776</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.266829270418505</v>
+        <v>-7.187480688968475</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.583847794595004</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.620475764012363</v>
+        <v>-5.60734389156783</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.784135632633474</v>
+        <v>-1.831803449585894</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.176827543005468</v>
+        <v>-7.097518073610373</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>4.417322176473673</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.509319303886185</v>
+        <v>-5.496309656613325</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.923315880120808</v>
+        <v>-1.972978411874931</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.989314573631812</v>
+        <v>-6.919299106290723</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>4.254722152859969</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.283114734167764</v>
+        <v>-5.273688728928352</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.034208333876173</v>
+        <v>-2.07687469680374</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.913031399487338</v>
+        <v>-6.842864372933374</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>4.099635593809771</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.112175498072951</v>
+        <v>-5.094447959173516</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.119506836683239</v>
+        <v>-2.16574706363052</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.104792915828343</v>
+        <v>-7.034484108075238</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>3.954267293487696</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.714699239792765</v>
+        <v>-4.702848287147363</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.24641078792775</v>
+        <v>-2.290822526306805</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.812356970083825</v>
+        <v>-6.752491080998452</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>3.822071447587634</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.657033403797503</v>
+        <v>-4.646761600370115</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.356775228941488</v>
+        <v>-2.399422035841587</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.717383122687135</v>
+        <v>-6.658235917611198</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>3.704941670735773</v>
       </c>
       <c r="E65" t="n">
-        <v>-4.424321565939218</v>
+        <v>-4.415756025908384</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.125500759102076</v>
+        <v>-2.172063660502574</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.794326312758643</v>
+        <v>-6.732539043974572</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>3.604587515497261</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.603415665488047</v>
+        <v>-4.589917117528495</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.305846444408835</v>
+        <v>-2.348664366549276</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.770678186543375</v>
+        <v>-6.714620833807328</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>3.521401593037498</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.373808346990253</v>
+        <v>-4.355318123019581</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.363194494957747</v>
+        <v>-2.414406841888681</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.603058586111196</v>
+        <v>-6.550237755921047</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>3.45465971192777</v>
       </c>
       <c r="E68" t="n">
-        <v>-4.471500482204948</v>
+        <v>-4.454965860981042</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.318416081063673</v>
+        <v>-2.368606625559422</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.522306859690362</v>
+        <v>-6.46188362382216</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>3.403114770098934</v>
       </c>
       <c r="E69" t="n">
-        <v>-4.682084674983575</v>
+        <v>-4.661399286929658</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.426023122204471</v>
+        <v>-2.473998946589508</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.255846207429763</v>
+        <v>-6.195154076183881</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>3.364606847517756</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.442586895594013</v>
+        <v>-4.427240303038767</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.292103446105937</v>
+        <v>-2.343662912524422</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.20301559922588</v>
+        <v>-6.150184991021997</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>3.337164313478541</v>
       </c>
       <c r="E71" t="n">
-        <v>-4.982866155449917</v>
+        <v>-4.962708780137627</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.383904328045999</v>
+        <v>-2.432872620825019</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.113996562193093</v>
+        <v>-6.061840636936845</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>3.319407765702535</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.038713280890686</v>
+        <v>-5.024672053168906</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.305259763584805</v>
+        <v>-2.360275757858199</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.667400451921013</v>
+        <v>-5.627814163319603</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>3.309666211376914</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.332953270169096</v>
+        <v>-5.311730091359817</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.499529340448537</v>
+        <v>-2.549367876449868</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.704449345958495</v>
+        <v>-5.659426481721075</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>3.307102418998175</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.552376787363105</v>
+        <v>-5.537973773133174</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.329944359255859</v>
+        <v>-2.381357155468336</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.226592925779361</v>
+        <v>-5.183510997268106</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>3.311312947312947</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.030482546892451</v>
+        <v>-6.016866662768094</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.470131742157778</v>
+        <v>-2.524859285026024</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.038063042977386</v>
+        <v>-5.000373689040339</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>3.322874039393377</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.233752785398175</v>
+        <v>-6.220904475351922</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.492274054258035</v>
+        <v>-2.550228341658445</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.588269522214344</v>
+        <v>-4.549318804505633</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>3.343002324142814</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.767803450505629</v>
+        <v>-6.761789972059324</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.501568056312041</v>
+        <v>-2.56028502878369</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.122078272419669</v>
+        <v>-4.092925124472256</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.3725490438053</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.501623825202095</v>
+        <v>-7.489601757316351</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.515941736500771</v>
+        <v>-2.576218302162965</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.811073878594609</v>
+        <v>-3.784976359939017</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>3.41399222931285</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.180829104188254</v>
+        <v>-8.16950616428448</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.49635637499191</v>
+        <v>-2.559996577378541</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.345175969211949</v>
+        <v>-3.320330036314287</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>3.467932008164083</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.786278825580135</v>
+        <v>-8.774041641392246</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.596937913264951</v>
+        <v>-2.656246455567496</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.875713973823308</v>
+        <v>-2.852862755727347</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>3.535735788348312</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.428425432515079</v>
+        <v>-9.41854963864391</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.510070039253606</v>
+        <v>-2.573206673932946</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.4843587521405</v>
+        <v>-2.463937370457396</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>3.616869334084647</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.29217116469981</v>
+        <v>-10.28495010155738</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.660431445445575</v>
+        <v>-2.72051733983996</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.419721192353018</v>
+        <v>-2.403377242396921</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>3.709673261421835</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.29448601851351</v>
+        <v>-11.29008102332642</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.606559478779039</v>
+        <v>-2.672086837816301</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.051070518560163</v>
+        <v>-2.034491896274454</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>3.811537355232558</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.22762142516036</v>
+        <v>-12.23023704383416</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.713061604367915</v>
+        <v>-2.772257699512521</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.582928555025589</v>
+        <v>-1.570085133986203</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>3.918491718920659</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.60455643015142</v>
+        <v>-13.60870719698143</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.668195188350236</v>
+        <v>-2.727528175687116</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.537138116710064</v>
+        <v>-1.525981403039764</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>4.027865543584789</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.76294305017765</v>
+        <v>-14.77229083130719</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.714010071700096</v>
+        <v>-2.767178021377796</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.562428949232615</v>
+        <v>-1.549233519698811</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>4.134422432679645</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.22909754148304</v>
+        <v>-16.23361987283494</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.639941617666334</v>
+        <v>-2.702159119054694</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.270921914792811</v>
+        <v>-1.26276216233193</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.234860462766851</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.63273141297432</v>
+        <v>-17.6382315456996</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.69123218870714</v>
+        <v>-2.74834556692644</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.611113679613354</v>
+        <v>-1.598915607480401</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.324481916315454</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.12436251906321</v>
+        <v>-19.12645012499538</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.714978095059745</v>
+        <v>-2.770756774404378</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.287050748446763</v>
+        <v>-1.283574664564387</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>4.398638350646834</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.914770612803</v>
+        <v>-20.91763557082701</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.50351877005194</v>
+        <v>-2.565882941646307</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.465357717890018</v>
+        <v>-1.462179863426524</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>4.452950504528756</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.43568198101783</v>
+        <v>-22.43867894222725</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.571143513035107</v>
+        <v>-2.629532922046673</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.634766694835488</v>
+        <v>-1.631339501021781</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>4.482558273047084</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.32555203045814</v>
+        <v>-24.33282198366924</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.378853983952476</v>
+        <v>-2.436989164606961</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.898914846848036</v>
+        <v>-1.902034033229128</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>4.48448761130122</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.12768396266479</v>
+        <v>-26.14189141662005</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.325358470814692</v>
+        <v>-2.384085221300074</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.343262013961335</v>
+        <v>-2.34810213075958</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>4.454704410649452</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.20139044831484</v>
+        <v>-28.21271338821861</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.555161349587162</v>
+        <v>-2.614958792576399</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.522859681217455</v>
+        <v>-2.529982964222551</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>4.392345081918764</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.39845146622401</v>
+        <v>-30.41289603701231</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.513409230943709</v>
+        <v>-2.569251467377611</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.803229558014427</v>
+        <v>-2.813472027400614</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>4.294821725491617</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.52099424146767</v>
+        <v>-32.53257385423196</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.662421271240409</v>
+        <v>-2.71311538344345</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.133237521531186</v>
+        <v>-3.139705677616115</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>4.164439709831584</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.67700226871536</v>
+        <v>-34.68254884700588</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.77978677008757</v>
+        <v>-2.832553821202183</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.437744425230116</v>
+        <v>-3.44456947881633</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.998737827723137</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.67061948837504</v>
+        <v>-36.67380467634883</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.872374782133205</v>
+        <v>-2.921616859296773</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.729745249363479</v>
+        <v>-3.730713272723128</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.805963852090037</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.19069963448472</v>
+        <v>-39.18793490110147</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.958890647650132</v>
+        <v>-3.000740546430924</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.030937406406641</v>
+        <v>-4.035958416458962</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.580606334881316</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.30741715804644</v>
+        <v>-41.30938009430351</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.13456244239212</v>
+        <v>-3.169054385838205</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.586421477618651</v>
+        <v>-4.590293571057247</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.342303202287069</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.34539478151307</v>
+        <v>-43.35045245911689</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.20552637706539</v>
+        <v>-3.235862664674598</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.959222918241516</v>
+        <v>-4.957047310185739</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.070136949226702</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.73344729718171</v>
+        <v>-45.74288308043486</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.525663435717848</v>
+        <v>-3.549761350564872</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.176524606455285</v>
+        <v>-5.172716070105958</v>
       </c>
     </row>
   </sheetData>
